--- a/file_service/person.xlsx
+++ b/file_service/person.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="2295" yWindow="2295" windowWidth="21600" windowHeight="11295" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Лист1" sheetId="1" state="visible" r:id="rId1"/>
@@ -52,9 +52,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -398,341 +406,521 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:L8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="27.42578125" customWidth="1" min="1" max="2"/>
-    <col width="27.28515625" customWidth="1" min="3" max="3"/>
-    <col width="27.85546875" customWidth="1" min="4" max="4"/>
+    <col width="42" customWidth="1" min="1" max="1"/>
+    <col width="52.85546875" customWidth="1" min="2" max="2"/>
+    <col width="50.42578125" customWidth="1" min="3" max="3"/>
+    <col width="55.42578125" customWidth="1" min="4" max="4"/>
     <col width="27.42578125" customWidth="1" min="5" max="5"/>
     <col width="27.140625" customWidth="1" min="6" max="6"/>
+    <col width="35.85546875" customWidth="1" min="7" max="7"/>
+    <col width="24.42578125" customWidth="1" min="8" max="8"/>
+    <col width="18" customWidth="1" min="9" max="9"/>
+    <col width="27.28515625" customWidth="1" min="10" max="10"/>
+    <col width="33" customWidth="1" min="11" max="11"/>
+    <col width="18.85546875" customWidth="1" min="12" max="12"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" ht="81" customFormat="1" customHeight="1" s="3">
       <c r="A1" s="1" t="inlineStr">
         <is>
           <t>Familiya, Ism va Sharifi</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Telegram no'meri</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Telegram username</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Aloqa raqami</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Rasmlar soni</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Maktab raqami</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Yoshi</t>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>O‘qituvchi o‘zining fani bo‘yicha qanchalik ma’lumotga ega?</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>O‘qituvchining pedagogik maxoratini qanday deb bilasiz?</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>O‘qituvchining dars jarayoniga jiddiy qarashini, darslarning o‘z vaqtida tashkillashtirilishi haqida qanday fikrdasiz?</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>O‘qituvchi dars jarayonida darsga taaluqli bo‘lmagan mavzuda suhbatlashadimi?</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>O‘qituvchi qanchalik pedagogik qoidalarni va shaxsiy chegaralarni buzadi, talabalarning shaxsiyatiga tegadi?</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>O‘qituvchining talabalar bilan darsdan tashqari muloqotiga (to‘garak, tadbir, o‘zlashtirishi past o‘quvchilar, ustoz-shogird, sport) munosabatingiz?</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>O‘qituvchining talabalarni darsga qiziqtirish mahorati haqida fikringiz?</t>
+        </is>
+      </c>
+      <c r="I1" s="2" t="inlineStr">
+        <is>
+          <t>O‘qituvchining talabalarni baholashi haqida fikringiz?</t>
+        </is>
+      </c>
+      <c r="J1" s="2" t="inlineStr">
+        <is>
+          <t>O‘qituvchi dars jarayonida interfaol metodlardan (klaster, aqliy xujum, guruhlarda ishlash va hk) qanchalik foydalanadi?</t>
+        </is>
+      </c>
+      <c r="K1" s="2" t="inlineStr">
+        <is>
+          <t>O‘qituvchi dars jarayonida zamonaviy texnologiyalardan (masalan, smart doska, kompyuter, onlayn resurslar) qanchalik samarali foydalanadi?</t>
+        </is>
+      </c>
+      <c r="L1" s="2" t="inlineStr">
+        <is>
+          <t>Umuman olganda, o‘qituvchi haqida qanday fikrdasiz?</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Amirov Akrom, +12676860109</t>
+          <t>BOBOYEVA MOHIM SHUKUROVNA</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>+998945289910</t>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Amirov Akrom</t>
+          <t>O‘KTAMOVA YAQUTOY RAVSHAN QIZI</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>+12676860109</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>+998945289910</t>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>13</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Amirov Akrom</t>
+          <t>SULTANOV G‘AYRAT SHARIFOVICH</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>+12676860109</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>+998945289910</t>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>13</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Amirov Akrom</t>
+          <t>XUDOYBERDIYEVA VILOYAT JABBOROVNA</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>+12676860109</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>+998945289910</t>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>15</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Amirov Akrom</t>
+          <t>YODGOROV MUHAMMAD FURQAT O‘G‘LI</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>+12676860109</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>+998945289910</t>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>12</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Amirov Akrom</t>
+          <t>YUNUSXODJAYEV ZAIR SHAKIROVICH</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>+12676860109</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Cyber_Securety</t>
+          <t>8</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>+998945289910</t>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>10</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Amirov Akrom</t>
+          <t xml:space="preserve">	KADIROVA NILUFAR KAZIM QIZI</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>+12676860109</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>9</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>+998945289910</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Amirov Akrom</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>+12676860109</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Cyber_Securety</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>+998945289910</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Amirov Akrom</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>+12676860109</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Cyber_Securety</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>+998945289910</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Amirov Akrom</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>+12676860109</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Cyber_Securety</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>+998945289910</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Isoqov Eldor Fayzullayevich</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>998971300087</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>eldorisoqov</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>+998971300087</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Amirov AKrom Eshali o'g'li</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>+12676860109</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Cyber_Securety</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>+998945289910</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>32</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Ganiyva Nafisaxon Sardor qizi</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>998994884859</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>994884859</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>23 maktab</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>8 yosh</t>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>9</t>
         </is>
       </c>
     </row>

--- a/file_service/person.xlsx
+++ b/file_service/person.xlsx
@@ -52,7 +52,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -62,6 +62,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -406,10 +409,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L8"/>
+  <dimension ref="A1:N8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -426,6 +429,9 @@
     <col width="27.28515625" customWidth="1" min="10" max="10"/>
     <col width="33" customWidth="1" min="11" max="11"/>
     <col width="18.85546875" customWidth="1" min="12" max="12"/>
+    <col width="18.28515625" customWidth="1" style="4" min="13" max="13"/>
+    <col width="18.42578125" customWidth="1" min="14" max="14"/>
+    <col width="18" customWidth="1" min="15" max="15"/>
   </cols>
   <sheetData>
     <row r="1" ht="81" customFormat="1" customHeight="1" s="3">
@@ -489,6 +495,16 @@
           <t>Umuman olganda, o‘qituvchi haqida qanday fikrdasiz?</t>
         </is>
       </c>
+      <c r="M1" s="2" t="inlineStr">
+        <is>
+          <t>Jami to'planadigan ball</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="inlineStr">
+        <is>
+          <t>To'plangan ball</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -498,57 +514,67 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>31</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>29</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>29</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>29</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>29</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>29</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>29</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>29</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>29</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>360</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>182</t>
         </is>
       </c>
     </row>
@@ -560,57 +586,67 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>20</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>20</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>21</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>23</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>22</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>22</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>21</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>23</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>22</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>22</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="M3" s="4" t="inlineStr">
+        <is>
+          <t>180</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>67</t>
         </is>
       </c>
     </row>
@@ -675,6 +711,12 @@
           <t>13</t>
         </is>
       </c>
+      <c r="M4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -737,6 +779,12 @@
           <t>15</t>
         </is>
       </c>
+      <c r="M5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -799,6 +847,12 @@
           <t>12</t>
         </is>
       </c>
+      <c r="M6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -861,6 +915,12 @@
           <t>10</t>
         </is>
       </c>
+      <c r="M7" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -922,6 +982,12 @@
         <is>
           <t>9</t>
         </is>
+      </c>
+      <c r="M8" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/file_service/person.xlsx
+++ b/file_service/person.xlsx
@@ -522,72 +522,72 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>25</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>25</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>24</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>24</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>27</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>26</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>26</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>26</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>24</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>26</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>25</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>27</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>360</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>202</t>
+          <t>305</t>
         </is>
       </c>
     </row>

--- a/file_service/person.xlsx
+++ b/file_service/person.xlsx
@@ -522,72 +522,72 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>40</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>40</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>39</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>39</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>42</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>41</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>41</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>41</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>39</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>41</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>40</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>42</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>540</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>305</t>
+          <t>475</t>
         </is>
       </c>
     </row>
@@ -599,72 +599,72 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>19</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>18</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>19</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>22</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>20</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>19</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>20</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>20</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>19</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>19</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>19</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>300</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>173</t>
+          <t>229</t>
         </is>
       </c>
     </row>

--- a/file_service/person.xlsx
+++ b/file_service/person.xlsx
@@ -414,8 +414,8 @@
   </sheetPr>
   <dimension ref="A1:O8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:O3"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -522,72 +522,72 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>18</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>18</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>18</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>18</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>18</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>18</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>18</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>18</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>18</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>18</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>18</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>540</t>
+          <t>240</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>475</t>
+          <t>211</t>
         </is>
       </c>
     </row>
@@ -597,75 +597,47 @@
           <t>O‘KTAMOVA YAQUTOY RAVSHAN QIZI</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>19</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>19</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>18</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>19</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>19</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>19</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>19</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>19</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>300</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>229</t>
-        </is>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -674,75 +646,47 @@
           <t>SULTANOV G‘AYRAT SHARIFOVICH</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>19</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>19</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>19</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>19</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>19</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>31</t>
-        </is>
-      </c>
-      <c r="N4" s="4" t="inlineStr">
-        <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>82</t>
-        </is>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -751,75 +695,47 @@
           <t>XUDOYBERDIYEVA VILOYAT JABBOROVNA</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>17</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>17</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>17</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>18</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="N5" s="4" t="inlineStr">
-        <is>
-          <t>60</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>60</t>
-        </is>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -828,75 +744,47 @@
           <t>YODGOROV MUHAMMAD FURQAT O‘G‘LI</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>17</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>17</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>17</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>17</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>17</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>18</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>17</t>
-        </is>
-      </c>
-      <c r="N6" s="4" t="inlineStr">
-        <is>
-          <t>60</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>59</t>
-        </is>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -907,72 +795,72 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>10</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>10</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>10</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>10</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>10</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>10</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>10</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>10</t>
         </is>
       </c>
       <c r="N7" s="4" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>120</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>120</t>
         </is>
       </c>
     </row>
@@ -982,75 +870,47 @@
           <t>KADIROVA NILUFAR KAZIM QIZI</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
-      <c r="N8" s="4" t="inlineStr">
-        <is>
-          <t>60</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>60</t>
-        </is>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
